--- a/target/classes/com/qa/hubspot/testdata/HubSpotTestData.xlsx
+++ b/target/classes/com/qa/hubspot/testdata/HubSpotTestData.xlsx
@@ -216,13 +216,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="174" zoomScaleNormal="174" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,7 +332,7 @@
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -354,7 +355,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
